--- a/res/actions.xlsx
+++ b/res/actions.xlsx
@@ -136,10 +136,10 @@
     <t>y</t>
   </si>
   <si>
-    <t>05/01/2016</t>
-  </si>
-  <si>
-    <t>05/31/2016</t>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
